--- a/Lampiran Bimbingan Dospem1 311710228.xlsx
+++ b/Lampiran Bimbingan Dospem1 311710228.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE01424-D3F8-44D3-B54B-AEA7DA695035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9B9072-5732-42F2-8DE8-AABA4B7369B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="630" windowWidth="10845" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Nama</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>4. Batasan masalah tambahkan sampai total cetak biaya</t>
+  </si>
+  <si>
+    <t>BAB I</t>
+  </si>
+  <si>
+    <t>setiap bab beri keterangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAB 2 </t>
   </si>
 </sst>
 </file>
@@ -203,14 +212,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,7 +504,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,29 +517,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
@@ -633,7 +642,7 @@
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="6"/>
@@ -656,9 +665,15 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="7">
+        <v>44383</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
@@ -671,7 +686,9 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>

--- a/Lampiran Bimbingan Dospem1 311710228.xlsx
+++ b/Lampiran Bimbingan Dospem1 311710228.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9B9072-5732-42F2-8DE8-AABA4B7369B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50630F29-5921-45BF-8D8A-1BA02E9A503E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="630" windowWidth="10845" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15120" yWindow="840" windowWidth="10845" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Nama</t>
   </si>
@@ -75,9 +75,6 @@
     <t>: 081218442986</t>
   </si>
   <si>
-    <t>2. Perbaiki typo dan kata asing bercetak miring</t>
-  </si>
-  <si>
     <t>Sistem Informasi Rekam Medis Berbasis Web Dengan Framework Laravel Pada Klinik Syifa Medikana Tambun Selatan</t>
   </si>
   <si>
@@ -87,22 +84,52 @@
     <t>: 311710228</t>
   </si>
   <si>
-    <t>1. Point Point Menggunakan angka bukan huruf</t>
-  </si>
-  <si>
-    <t>3. Rumusan masalah terbalik bagaimana dahulu baru apakah</t>
-  </si>
-  <si>
-    <t>4. Batasan masalah tambahkan sampai total cetak biaya</t>
-  </si>
-  <si>
     <t>BAB I</t>
   </si>
   <si>
     <t>setiap bab beri keterangan</t>
   </si>
   <si>
-    <t xml:space="preserve">BAB 2 </t>
+    <t>Perbaiki typo dan kata asing cetak miring</t>
+  </si>
+  <si>
+    <t>BAB II</t>
+  </si>
+  <si>
+    <t>Latar belakang tidak perlu pakai referensi sitasi, rubah kalimat menjadi kalimat sendiri sesuai dengan keadaan pada klinik</t>
+  </si>
+  <si>
+    <t>Batasan : Point nomor 1 di hilangkan saja</t>
+  </si>
+  <si>
+    <t>Rumusan : Point nomor 1 batasan pindahkan ke rumusan</t>
+  </si>
+  <si>
+    <t>Tambahkan literalur Prototyping</t>
+  </si>
+  <si>
+    <t>Beri keterangan pada setiap diagram</t>
+  </si>
+  <si>
+    <t>Perbaiki Point Prototyping</t>
+  </si>
+  <si>
+    <t>Point Point Menggunakan angka bukan huruf</t>
+  </si>
+  <si>
+    <t>Perbaiki typo dan kata asing bercetak miring</t>
+  </si>
+  <si>
+    <t>Rumusan masalah terbalik bagaimana dahulu baru apakah</t>
+  </si>
+  <si>
+    <t>Batasan masalah tambahkan sampai total cetak biaya</t>
+  </si>
+  <si>
+    <t>BAB III</t>
+  </si>
+  <si>
+    <t>Lanjut Bab IV</t>
   </si>
 </sst>
 </file>
@@ -165,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -188,11 +215,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -202,24 +354,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,412 +719,527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="9"/>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="9"/>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="34"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
         <v>44369</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="23">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="24">
+        <v>2</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="24">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="15">
+        <v>4</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>44383</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="24">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="9" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="24">
+        <v>2</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>44398</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="24">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>44383</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="C27" s="24">
+        <v>4</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="24">
+        <v>5</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="26">
+        <v>6</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
+        <v>44404</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="27">
+        <v>1</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A1:E2"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
